--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1206496666666667</v>
+        <v>0.070922</v>
       </c>
       <c r="N2">
-        <v>0.361949</v>
+        <v>0.212766</v>
       </c>
       <c r="O2">
-        <v>0.05526797905384377</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="P2">
-        <v>0.05526797905384378</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="Q2">
-        <v>4.786012335425222</v>
+        <v>2.982352180394666</v>
       </c>
       <c r="R2">
-        <v>43.074111018827</v>
+        <v>26.841169623552</v>
       </c>
       <c r="S2">
-        <v>0.008543004554870609</v>
+        <v>0.003900187390022437</v>
       </c>
       <c r="T2">
-        <v>0.008543004554870611</v>
+        <v>0.003900187390022438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1465633333333333</v>
+        <v>0.1465633333333334</v>
       </c>
       <c r="N3">
         <v>0.43969</v>
       </c>
       <c r="O3">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="P3">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="Q3">
-        <v>5.813973139207778</v>
+        <v>6.163157789297778</v>
       </c>
       <c r="R3">
-        <v>52.32575825287</v>
+        <v>55.46842010368</v>
       </c>
       <c r="S3">
-        <v>0.01037790869081296</v>
+        <v>0.008059903337558471</v>
       </c>
       <c r="T3">
-        <v>0.01037790869081296</v>
+        <v>0.008059903337558471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H4">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915781</v>
+        <v>2.681876666666667</v>
       </c>
       <c r="N4">
-        <v>5.747343000000001</v>
+        <v>8.045630000000001</v>
       </c>
       <c r="O4">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="P4">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="Q4">
-        <v>75.99649258298768</v>
+        <v>112.7760176585956</v>
       </c>
       <c r="R4">
-        <v>683.968433246889</v>
+        <v>1014.98415892736</v>
       </c>
       <c r="S4">
-        <v>0.1356533031653734</v>
+        <v>0.1474834544560044</v>
       </c>
       <c r="T4">
-        <v>0.1356533031653734</v>
+        <v>0.1474834544560044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H5">
         <v>172.981738</v>
       </c>
       <c r="I5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1206496666666667</v>
+        <v>0.070922</v>
       </c>
       <c r="N5">
-        <v>0.361949</v>
+        <v>0.212766</v>
       </c>
       <c r="O5">
-        <v>0.05526797905384377</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="P5">
-        <v>0.05526797905384378</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="Q5">
-        <v>6.956729676373556</v>
+        <v>4.089403607478665</v>
       </c>
       <c r="R5">
-        <v>62.610567087362</v>
+        <v>36.804632467308</v>
       </c>
       <c r="S5">
-        <v>0.01241772255210507</v>
+        <v>0.005347939954056635</v>
       </c>
       <c r="T5">
-        <v>0.01241772255210507</v>
+        <v>0.005347939954056636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
         <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1465633333333333</v>
+        <v>0.1465633333333334</v>
       </c>
       <c r="N6">
         <v>0.43969</v>
       </c>
       <c r="O6">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="P6">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="Q6">
-        <v>8.450926709024445</v>
+        <v>8.450926709024444</v>
       </c>
       <c r="R6">
         <v>76.05834038121999</v>
       </c>
       <c r="S6">
-        <v>0.0150848556811459</v>
+        <v>0.01105174566612693</v>
       </c>
       <c r="T6">
-        <v>0.0150848556811459</v>
+        <v>0.01105174566612693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
         <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.915781</v>
+        <v>2.681876666666667</v>
       </c>
       <c r="N7">
-        <v>5.747343000000001</v>
+        <v>8.045630000000001</v>
       </c>
       <c r="O7">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="P7">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="Q7">
-        <v>110.4650423357927</v>
+        <v>154.6385623005489</v>
       </c>
       <c r="R7">
-        <v>994.1853810221342</v>
+        <v>1391.74706070494</v>
       </c>
       <c r="S7">
-        <v>0.1971794666811712</v>
+        <v>0.2022294263771312</v>
       </c>
       <c r="T7">
-        <v>0.1971794666811712</v>
+        <v>0.2022294263771312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H8">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I8">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J8">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1206496666666667</v>
+        <v>0.070922</v>
       </c>
       <c r="N8">
-        <v>0.361949</v>
+        <v>0.212766</v>
       </c>
       <c r="O8">
-        <v>0.05526797905384377</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="P8">
-        <v>0.05526797905384378</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="Q8">
-        <v>11.37834519092833</v>
+        <v>7.032058356765999</v>
       </c>
       <c r="R8">
-        <v>102.405106718355</v>
+        <v>63.288525210894</v>
       </c>
       <c r="S8">
-        <v>0.0203102808727622</v>
+        <v>0.009196212811235198</v>
       </c>
       <c r="T8">
-        <v>0.0203102808727622</v>
+        <v>0.009196212811235198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H9">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I9">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J9">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1465633333333333</v>
+        <v>0.1465633333333334</v>
       </c>
       <c r="N9">
         <v>0.43969</v>
       </c>
       <c r="O9">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="P9">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="Q9">
-        <v>13.82223627361667</v>
+        <v>14.53204806635667</v>
       </c>
       <c r="R9">
-        <v>124.40012646255</v>
+        <v>130.78843259721</v>
       </c>
       <c r="S9">
-        <v>0.02467261243143319</v>
+        <v>0.01900436541069534</v>
       </c>
       <c r="T9">
-        <v>0.02467261243143319</v>
+        <v>0.01900436541069534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H10">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.915781</v>
+        <v>2.681876666666667</v>
       </c>
       <c r="N10">
-        <v>5.747343000000001</v>
+        <v>8.045630000000001</v>
       </c>
       <c r="O10">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="P10">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="Q10">
-        <v>180.675323276665</v>
+        <v>265.9134432989634</v>
       </c>
       <c r="R10">
-        <v>1626.077909489985</v>
+        <v>2393.22098969067</v>
       </c>
       <c r="S10">
-        <v>0.3225044152687361</v>
+        <v>0.3477497611482015</v>
       </c>
       <c r="T10">
-        <v>0.3225044152687361</v>
+        <v>0.3477497611482016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H11">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I11">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J11">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1206496666666667</v>
+        <v>0.070922</v>
       </c>
       <c r="N11">
-        <v>0.361949</v>
+        <v>0.212766</v>
       </c>
       <c r="O11">
-        <v>0.05526797905384377</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="P11">
-        <v>0.05526797905384378</v>
+        <v>0.02446124354254487</v>
       </c>
       <c r="Q11">
-        <v>7.841465586140666</v>
+        <v>4.600939170778666</v>
       </c>
       <c r="R11">
-        <v>70.57319027526599</v>
+        <v>41.408452537008</v>
       </c>
       <c r="S11">
-        <v>0.0139969710741059</v>
+        <v>0.006016903387230603</v>
       </c>
       <c r="T11">
-        <v>0.0139969710741059</v>
+        <v>0.006016903387230604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H12">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I12">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J12">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1465633333333333</v>
+        <v>0.1465633333333334</v>
       </c>
       <c r="N12">
         <v>0.43969</v>
       </c>
       <c r="O12">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="P12">
-        <v>0.06713867895804262</v>
+        <v>0.05055020150410101</v>
       </c>
       <c r="Q12">
-        <v>9.525690093273333</v>
+        <v>9.508036735191112</v>
       </c>
       <c r="R12">
-        <v>85.73121083945999</v>
+        <v>85.57233061672001</v>
       </c>
       <c r="S12">
-        <v>0.01700330215465058</v>
+        <v>0.01243418708972028</v>
       </c>
       <c r="T12">
-        <v>0.01700330215465058</v>
+        <v>0.01243418708972028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H13">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I13">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J13">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.915781</v>
+        <v>2.681876666666667</v>
       </c>
       <c r="N13">
-        <v>5.747343000000001</v>
+        <v>8.045630000000001</v>
       </c>
       <c r="O13">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="P13">
-        <v>0.8775933419881136</v>
+        <v>0.9249885549533541</v>
       </c>
       <c r="Q13">
-        <v>124.513653432518</v>
+        <v>173.9820000403822</v>
       </c>
       <c r="R13">
-        <v>1120.622880892662</v>
+        <v>1565.83800036344</v>
       </c>
       <c r="S13">
-        <v>0.222256156872833</v>
+        <v>0.227525912972017</v>
       </c>
       <c r="T13">
-        <v>0.222256156872833</v>
+        <v>0.227525912972017</v>
       </c>
     </row>
   </sheetData>
